--- a/biology/Botanique/Fleuriste/Fleuriste.xlsx
+++ b/biology/Botanique/Fleuriste/Fleuriste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fleuriste est un artisan spécialisé dans la vente de fleurs et la confection de bouquets de fleurs et d'assemblages appelés « compositions ».
-Il s'approvisionne chez un horticulteur[1] ou chez un grossiste[2] ou même « au cadran » principalement aux Pays-Bas[3]. Il compose des bouquets et peut renseigner les clients sur les caractéristiques de chaque plante ou fleur.
+Il s'approvisionne chez un horticulteur ou chez un grossiste ou même « au cadran » principalement aux Pays-Bas. Il compose des bouquets et peut renseigner les clients sur les caractéristiques de chaque plante ou fleur.
 Autrefois, le nom des fleuristes était « bouquetières », car à l’époque on vendait des petits bouquets sur le marché.
 </t>
         </is>
@@ -515,11 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première boutique de fleuriste en France
-La première boutique de fleuriste aurait été celle de Madame Prévost, ouverte au Palais-Royal à Paris en 1830. Dix ans plus tard Jules Lachaume ouvre une boutique rue de la Chaussée-d’Antin, puis en 1870 le magasin déménage rue Royale, et s'installe finalement en 2013, rue du Faubourg-Saint-Honoré[4].
-En 2009, la France compte 14 000 boutiques de fleuristes qui s'approvisionnent pour 70 % aux Pays-Bas[5].
-Naissance des fleurs artificielles
-Il y a plus de 3 000 années que l’art de produire des fleurs artificielles s’établit en Chine, au Moyen-Orient[réf. nécessaire]. En Europe la production des fleurs artificielles commençait dans des couvents des religieuses en Italie dans le XVIe siècle. Dans le XVIIe siècle des fleuristes artificiels s’établissaient en France, en Bohême et en Prusse. Jusqu'aux années 1920 les fleurs artificielles étaient un véritable accessoire de la mode féminine[réf. nécessaire].
+          <t>Première boutique de fleuriste en France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première boutique de fleuriste aurait été celle de Madame Prévost, ouverte au Palais-Royal à Paris en 1830. Dix ans plus tard Jules Lachaume ouvre une boutique rue de la Chaussée-d’Antin, puis en 1870 le magasin déménage rue Royale, et s'installe finalement en 2013, rue du Faubourg-Saint-Honoré.
+En 2009, la France compte 14 000 boutiques de fleuristes qui s'approvisionnent pour 70 % aux Pays-Bas.
 </t>
         </is>
       </c>
@@ -545,10 +560,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Naissance des fleurs artificielles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a plus de 3 000 années que l’art de produire des fleurs artificielles s’établit en Chine, au Moyen-Orient[réf. nécessaire]. En Europe la production des fleurs artificielles commençait dans des couvents des religieuses en Italie dans le XVIe siècle. Dans le XVIIe siècle des fleuristes artificiels s’établissaient en France, en Bohême et en Prusse. Jusqu'aux années 1920 les fleurs artificielles étaient un véritable accessoire de la mode féminine[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fleuriste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fleuriste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du métier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fleuriste crée des bouquets de fleurs coupées, réalise des compositions florales avec de vraies fleurs ou des fleurs artificielles et fait aussi des arrangements de plantes vertes. Pour cela, il commence par choisir et acheter des fleurs chez un grossiste ou sur des marchés spécialisés. Lorsqu'il les entrepose dans son magasin, il doit vérifier qu'elles sont dans de bonnes conditions de température, de lumière et d’humidité et doit savoir les nommer. Il doit savoir les réceptionner et les nettoyer, donc en prendre soin jusqu’à leur vente. Il doit connaître les procédures de conservation de ses fleurs coupées et aussi avoir une grande connaissance de l'entretien des plantes et fleurs qu'il détient dans son magasin.
 D'autres occupations secondaires incombent également aux fleuristes, telles que le nettoyage et le rangement du point de vente, l'évaluation et la gestion des stocks, l'approvisionnement, les assemblages et associations de fleurs pour former des bouquets, etc.
@@ -558,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Fleuriste</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fleuriste</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Types de fleuriste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut distinguer les fleuristes artisans qui sont des PME indépendantes non subordonnées à une autre structure, et les fleuristes franchisés, indépendants ou non, dont la politique commerciale est dictée par un franchiseur et qui propose des plantes standardisées. Les marques commerciales de fleuristes les plus connues fonctionnant sous forme de franchise. Il existe également des réseaux de fleuristes traditionnels indépendants qui se regroupent pour effectuer des transmissions florales : ces structures permettent de commander un bouquet, une plante ou une composition chez un membre du réseau, tandis qu'un autre fleuriste exécutera et livrera la commande.
 À côté des fleuristes qui vendent des fleurs et plantes naturelles, il y a un petit nombre de gens qui font des bouquets de fleurs en assemblant des fleurs de soie ou des plantes artificielles : ce sont les fleuristes artificiels. Aujourd’hui, grâce aux méthodes de production moderne et distinguée, les fleuristes sont capables d’assembler des bouquets de fleurs artificielles qui peuvent tromper même les abeilles.
@@ -591,35 +647,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fleuriste</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fleuriste</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Niveaux de formation requis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Au Québec, un cours est donné dans différentes écoles d'Horticulture et d'agriculture. C'est un diplôme d'études professionnelles. Le cours est d'une durée de 9 mois soit 1 035 heures.
 Il n’existe aucun diplôme obligatoire pour exercer le métier de fleuriste en France. Cependant, les études généralement suivies pour exercer ce métier sont :
-un certificat d'aptitude professionnelle[6] (CAP) fleuriste (débute après la 3e) : diplôme principal pour être fleuriste ;
+un certificat d'aptitude professionnelle (CAP) fleuriste (débute après la 3e) : diplôme principal pour être fleuriste ;
 un brevet professionnel fleuriste : accessible aux titulaires du CAP.
 Ces diplômes sont le plus souvent préparés en apprentissage.
 Il est possible ensuite d'effectuer un brevet de maîtrise, délivrant le titre de maître artisan.
@@ -632,37 +690,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fleuriste</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fleuriste</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Évolution du métier</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un fleuriste peut devenir responsable d'un rayon floral en grande surface ou en magasin de jardinerie ou devenir conseiller technique de vente. Il peut aussi devenir patron et/ou propriétaire d'un magasin de fleurs.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -684,10 +711,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Évolution du métier</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un fleuriste peut devenir responsable d'un rayon floral en grande surface ou en magasin de jardinerie ou devenir conseiller technique de vente. Il peut aussi devenir patron et/ou propriétaire d'un magasin de fleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fleuriste</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fleuriste</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Syndicat professionnel français</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Synapses</t>
         </is>
